--- a/Tables/Data_PC.xlsx
+++ b/Tables/Data_PC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KPMG-Contest\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03497089-354F-44B0-83B5-6C78C2437690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E387B-FB40-4EE7-8F10-7A5D33A02AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3888" windowWidth="23040" windowHeight="13872" xr2:uid="{3609F5BA-C8A2-413D-82B7-F109926B82BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3609F5BA-C8A2-413D-82B7-F109926B82BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Game Name</t>
   </si>
@@ -55,139 +55,160 @@
     <t>MOBA</t>
   </si>
   <si>
-    <t>Tencent</t>
-  </si>
-  <si>
-    <t>NetEase</t>
-  </si>
-  <si>
-    <t>Active player</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>wzry</t>
-  </si>
-  <si>
-    <t>mlol</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>MiHoYo</t>
-  </si>
-  <si>
     <t>Percentage player that are GZ</t>
   </si>
   <si>
     <t>FPS</t>
   </si>
   <si>
-    <t>mbh3</t>
-  </si>
-  <si>
-    <t>mgzlj</t>
-  </si>
-  <si>
-    <t>mpubg</t>
-  </si>
-  <si>
-    <t>mcf</t>
-  </si>
-  <si>
-    <t>mwpzs</t>
-  </si>
-  <si>
-    <t>Cygames</t>
-  </si>
-  <si>
-    <t>mhszz</t>
-  </si>
-  <si>
-    <t>mblct</t>
-  </si>
-  <si>
-    <t>mbwlb</t>
-  </si>
-  <si>
-    <t>Onmyoji</t>
-  </si>
-  <si>
-    <t>myys</t>
-  </si>
-  <si>
-    <t>mmhxy</t>
-  </si>
-  <si>
-    <t>TBRGB</t>
-  </si>
-  <si>
-    <t>RTS</t>
-  </si>
-  <si>
-    <t>Supercell</t>
-  </si>
-  <si>
-    <t>Feiyu</t>
-  </si>
-  <si>
-    <t>Income (app store)  (Million dollars)</t>
-  </si>
-  <si>
     <t>RPG</t>
   </si>
   <si>
-    <t>Hearthstone</t>
-  </si>
-  <si>
-    <t>mlscs</t>
-  </si>
-  <si>
-    <t>Blizard</t>
-  </si>
-  <si>
     <t>Number GZ player</t>
   </si>
   <si>
-    <t>Genshin Impact</t>
-  </si>
-  <si>
-    <t>Honkai Impact 3</t>
-  </si>
-  <si>
-    <t>Princess Connect</t>
-  </si>
-  <si>
-    <t>Ace Force</t>
-  </si>
-  <si>
-    <t>Clash Royale</t>
-  </si>
-  <si>
-    <t>Clash of Clans</t>
-  </si>
-  <si>
-    <t>Carrot Fantasy 3</t>
-  </si>
-  <si>
-    <t>Fantasy Westward Journey</t>
-  </si>
-  <si>
-    <t>Apex legend</t>
-  </si>
-  <si>
     <t>CS:GO</t>
   </si>
   <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
     <t>DOTA2</t>
   </si>
   <si>
-    <t>Heroes of the Storm</t>
+    <t>Lost Ark</t>
+  </si>
+  <si>
+    <t>PUBG</t>
+  </si>
+  <si>
+    <t>CSGO</t>
+  </si>
+  <si>
+    <t>Income Type</t>
+  </si>
+  <si>
+    <t>In-game purchase</t>
+  </si>
+  <si>
+    <t>Apex Legends</t>
+  </si>
+  <si>
+    <t>GTA5</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Rust </t>
+  </si>
+  <si>
+    <t>ARK: Survival Evolved</t>
+  </si>
+  <si>
+    <t>Active player (day)</t>
+  </si>
+  <si>
+    <t>PAYDAY 2</t>
+  </si>
+  <si>
+    <t>SLC</t>
+  </si>
+  <si>
+    <t>Destiny 2</t>
+  </si>
+  <si>
+    <t>War Thunder</t>
+  </si>
+  <si>
+    <t>MMORPG</t>
+  </si>
+  <si>
+    <t>MIR4</t>
+  </si>
+  <si>
+    <t>MONSTER HUNTER RISE</t>
+  </si>
+  <si>
+    <t>Nintendo </t>
+  </si>
+  <si>
+    <t>Wemade</t>
+  </si>
+  <si>
+    <t>Gaijin </t>
+  </si>
+  <si>
+    <t>Bungie</t>
+  </si>
+  <si>
+    <t>Overkill </t>
+  </si>
+  <si>
+    <t>Wildcard </t>
+  </si>
+  <si>
+    <t>Facepunch</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Respawn </t>
+  </si>
+  <si>
+    <t>Bluehole</t>
+  </si>
+  <si>
+    <t>Tripod </t>
+  </si>
+  <si>
+    <t>DOTA</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>payday</t>
+  </si>
+  <si>
+    <t>Apex</t>
+  </si>
+  <si>
+    <t>lost_ark</t>
+  </si>
+  <si>
+    <t>mir4</t>
+  </si>
+  <si>
+    <t>Tfort2</t>
+  </si>
+  <si>
+    <t>rust </t>
+  </si>
+  <si>
+    <t>arkse</t>
+  </si>
+  <si>
+    <t>Dead by Daylight</t>
+  </si>
+  <si>
+    <t>daylight</t>
+  </si>
+  <si>
+    <t>Behaviour </t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>thun</t>
+  </si>
+  <si>
+    <t>mhr</t>
   </si>
 </sst>
 </file>
@@ -254,13 +275,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -579,7 +602,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -607,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -627,21 +650,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>587.6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E2" s="6">
+        <v>593555</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -649,19 +674,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>444.6</v>
+        <v>38</v>
+      </c>
+      <c r="E3" s="6">
+        <v>448273</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -671,16 +696,20 @@
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E4" s="7">
+        <v>206202</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -689,19 +718,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E5" s="6">
+        <v>175115</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -709,18 +742,20 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="6">
+        <v>181448</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -729,18 +764,20 @@
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E7" s="7">
+        <v>95767</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -749,18 +786,20 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E8" s="6">
+        <v>110394</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -769,18 +808,20 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="6">
+        <v>79475</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -789,18 +830,20 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="7">
+        <v>88263</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -809,18 +852,20 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="6">
+        <v>37240</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -829,18 +874,20 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E12" s="6">
+        <v>37207</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -849,18 +896,20 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E13" s="7">
+        <v>54781</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -869,18 +918,20 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="6">
+        <v>39950</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -889,18 +940,20 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="6">
+        <v>41719</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -909,18 +962,20 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="6">
+        <v>89490</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
